--- a/record_layout.xlsx
+++ b/record_layout.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noli/Documents/UCD/teaching/CRD150/Lab/Lab 7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B861BBB-19AF-BC40-9AE8-CD20890F242C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065E6711-9B82-0746-88D5-C63D46B7DB89}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{BEB3350B-E758-344F-A76F-E03C3E803A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Database">#REF!</definedName>
   </definedNames>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Regional Opportunity Index Data Dictionary</t>
   </si>
@@ -102,12 +99,6 @@
     <t>Education Opportunity: Place</t>
   </si>
   <si>
-    <t>edplc_mean</t>
-  </si>
-  <si>
-    <t>The Education Opportunity: Place domain score is the geometric mean of the following four indicators.</t>
-  </si>
-  <si>
     <t>HS Grad. Rate</t>
   </si>
   <si>
@@ -150,12 +141,6 @@
     <t>Economic Opportunity: Place Domain</t>
   </si>
   <si>
-    <t>ecplc_mean</t>
-  </si>
-  <si>
-    <t>The Economic Opportunity: Place domain score is the geometric mean of the following four indicators.</t>
-  </si>
-  <si>
     <t>Job Availability</t>
   </si>
   <si>
@@ -207,12 +192,6 @@
     <t>Housing Opportunity: Place Domain</t>
   </si>
   <si>
-    <t>hsplc_mean</t>
-  </si>
-  <si>
-    <t>The Housing Opportunity: Place domain score is the geometric mean of the following two indicators.</t>
-  </si>
-  <si>
     <t>Housing Adequacy</t>
   </si>
   <si>
@@ -234,12 +213,6 @@
     <t>Health/Environment Opportunity: Place Domain</t>
   </si>
   <si>
-    <t>enplc_mean</t>
-  </si>
-  <si>
-    <t>The Health/Environment Opportunity: Place domain score is the geometric mean of the following three indicators</t>
-  </si>
-  <si>
     <t>Prenatal Care</t>
   </si>
   <si>
@@ -289,12 +262,6 @@
   </si>
   <si>
     <t>Civic Life Opportunity: Place Domain</t>
-  </si>
-  <si>
-    <t>soplc_mean</t>
-  </si>
-  <si>
-    <t>The Civic Life Opportunity: Place domain score is the geometric mean of the following two indicators</t>
   </si>
   <si>
     <t>US Citizenship</t>
@@ -798,23 +765,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="READ ME"/>
-      <sheetName val="Data Dictionary"/>
-      <sheetName val="ROI_2014"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1116,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7AC388-0D4D-8F41-B736-855CC9CB3B60}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1222,159 +1172,147 @@
       <c r="A10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="D12" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="D14" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>8</v>
@@ -1382,13 +1320,13 @@
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>8</v>
@@ -1396,93 +1334,85 @@
     </row>
     <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>87</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>8</v>
@@ -1490,13 +1420,13 @@
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>8</v>
